--- a/results/mp/logistic/corona/confidence/42/stop-words-0.5/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/42/stop-words-0.5/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,24 +40,21 @@
     <t>name</t>
   </si>
   <si>
-    <t>forced</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
@@ -70,21 +67,18 @@
     <t>drop</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>demand</t>
   </si>
   <si>
-    <t>oil</t>
-  </si>
-  <si>
     <t>co</t>
   </si>
   <si>
@@ -97,118 +91,118 @@
     <t>negative</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>support</t>
   </si>
   <si>
     <t>happy</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>support</t>
+    <t>interesting</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>confidence</t>
   </si>
   <si>
     <t>good</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>positive</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>thank</t>
   </si>
   <si>
-    <t>special</t>
+    <t>better</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>join</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
-    <t>friends</t>
+    <t>gt</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>gt</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>please</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>stay</t>
+    <t>grocery</t>
   </si>
 </sst>
 </file>
@@ -574,10 +568,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -635,49 +629,49 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8620689655172413</v>
+        <v>0.7602739726027398</v>
       </c>
       <c r="C3">
+        <v>222</v>
+      </c>
+      <c r="D3">
+        <v>222</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>70</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3">
-        <v>25</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3">
+      <c r="K3">
+        <v>0.9322033898305084</v>
+      </c>
+      <c r="L3">
+        <v>55</v>
+      </c>
+      <c r="M3">
+        <v>55</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>4</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3">
-        <v>0.9782608695652174</v>
-      </c>
-      <c r="L3">
-        <v>45</v>
-      </c>
-      <c r="M3">
-        <v>45</v>
-      </c>
-      <c r="N3">
-        <v>1</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -685,13 +679,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.773972602739726</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C4">
-        <v>226</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>226</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -703,19 +697,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="K4">
-        <v>0.95</v>
+        <v>0.9083333333333333</v>
       </c>
       <c r="L4">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="M4">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -727,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -735,37 +729,37 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7105263157894737</v>
+        <v>0.5945945945945946</v>
       </c>
       <c r="C5">
+        <v>22</v>
+      </c>
+      <c r="D5">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D5">
-        <v>27</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>11</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -777,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -785,13 +779,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6333333333333333</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -803,19 +797,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K6">
-        <v>0.8846153846153846</v>
+        <v>0.8660714285714286</v>
       </c>
       <c r="L6">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -827,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -835,13 +829,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5675675675675675</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -853,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K7">
-        <v>0.8660714285714286</v>
+        <v>0.8584905660377359</v>
       </c>
       <c r="L7">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="M7">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -885,13 +879,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5277777777777778</v>
+        <v>0.4603174603174603</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -903,19 +897,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K8">
-        <v>0.839622641509434</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L8">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="M8">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -927,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -935,13 +929,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4444444444444444</v>
+        <v>0.4515503875968992</v>
       </c>
       <c r="C9">
-        <v>84</v>
+        <v>233</v>
       </c>
       <c r="D9">
-        <v>84</v>
+        <v>233</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -953,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>105</v>
+        <v>283</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K9">
-        <v>0.835509138381201</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L9">
-        <v>320</v>
+        <v>27</v>
       </c>
       <c r="M9">
-        <v>320</v>
+        <v>27</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -977,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>63</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,13 +979,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4341085271317829</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C10">
-        <v>224</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>224</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1003,19 +997,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>292</v>
+        <v>30</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K10">
-        <v>0.8333333333333334</v>
+        <v>0.8120104438642297</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>311</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>311</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1027,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1035,13 +1029,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4313725490196079</v>
+        <v>0.3898305084745763</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1053,19 +1047,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="K11">
-        <v>0.81875</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L11">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="M11">
-        <v>131</v>
+        <v>47</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1077,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1085,13 +1079,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.423728813559322</v>
+        <v>0.3288590604026846</v>
       </c>
       <c r="C12">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1103,19 +1097,19 @@
         <v>0</v>
       </c>
       <c r="H12">
+        <v>100</v>
+      </c>
+      <c r="J12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="J12" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="K12">
-        <v>0.8181818181818182</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L12">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M12">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1127,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1135,13 +1129,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.32</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1153,19 +1147,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K13">
-        <v>0.8170731707317073</v>
+        <v>0.8048780487804879</v>
       </c>
       <c r="L13">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M13">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1177,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1185,13 +1179,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2550335570469799</v>
+        <v>0.1349206349206349</v>
       </c>
       <c r="C14">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D14">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1203,31 +1197,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>111</v>
+        <v>218</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K14">
-        <v>0.7931034482758621</v>
+        <v>0.8</v>
       </c>
       <c r="L14">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1235,13 +1229,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.1388888888888889</v>
+        <v>0.1072386058981233</v>
       </c>
       <c r="C15">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D15">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1253,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>217</v>
+        <v>333</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="K15">
-        <v>0.7890625</v>
+        <v>0.775</v>
       </c>
       <c r="L15">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="M15">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1277,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1285,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.08847184986595175</v>
+        <v>0.01590392729633236</v>
       </c>
       <c r="C16">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D16">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.65</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>340</v>
+        <v>3032</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.7708333333333334</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1327,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1335,37 +1329,37 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.06333333333333334</v>
+        <v>0.01558809636277752</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>281</v>
+        <v>2084</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="K17">
-        <v>0.76</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="L17">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="M17">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1377,7 +1371,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1385,137 +1379,89 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.01458198314970836</v>
+        <v>0.01015550618851158</v>
       </c>
       <c r="C18">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D18">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="E18">
-        <v>0.32</v>
+        <v>0.61</v>
       </c>
       <c r="F18">
-        <v>0.6799999999999999</v>
+        <v>0.39</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18">
-        <v>3041</v>
+        <v>3119</v>
       </c>
       <c r="J18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K18">
+        <v>0.75</v>
+      </c>
+      <c r="L18">
+        <v>21</v>
+      </c>
+      <c r="M18">
+        <v>21</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="J19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K19">
+        <v>0.7446808510638298</v>
+      </c>
+      <c r="L19">
+        <v>35</v>
+      </c>
+      <c r="M19">
+        <v>35</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="J20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="K18">
-        <v>0.7535211267605634</v>
-      </c>
-      <c r="L18">
-        <v>107</v>
-      </c>
-      <c r="M18">
-        <v>107</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19">
-        <v>0.01421127427759356</v>
-      </c>
-      <c r="C19">
-        <v>30</v>
-      </c>
-      <c r="D19">
-        <v>62</v>
-      </c>
-      <c r="E19">
-        <v>0.52</v>
-      </c>
-      <c r="F19">
-        <v>0.48</v>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19">
-        <v>2081</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K19">
-        <v>0.7301587301587301</v>
-      </c>
-      <c r="L19">
-        <v>46</v>
-      </c>
-      <c r="M19">
-        <v>46</v>
-      </c>
-      <c r="N19">
-        <v>1</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20">
-        <v>0.00919175911251981</v>
-      </c>
-      <c r="C20">
-        <v>29</v>
-      </c>
-      <c r="D20">
-        <v>75</v>
-      </c>
-      <c r="E20">
-        <v>0.61</v>
-      </c>
-      <c r="F20">
-        <v>0.39</v>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>3126</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="K20">
-        <v>0.723404255319149</v>
+        <v>0.7421875</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1527,21 +1473,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:17">
       <c r="J21" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>0.7083333333333334</v>
+        <v>0.7301587301587301</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1553,21 +1499,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K22">
-        <v>0.6976744186046512</v>
+        <v>0.7</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M22">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1579,21 +1525,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K23">
-        <v>0.6857142857142857</v>
+        <v>0.6976744186046512</v>
       </c>
       <c r="L23">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1605,21 +1551,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K24">
-        <v>0.6785714285714286</v>
+        <v>0.6571428571428571</v>
       </c>
       <c r="L24">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="M24">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1631,21 +1577,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K25">
-        <v>0.6470588235294118</v>
+        <v>0.65</v>
       </c>
       <c r="L25">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c r="M25">
-        <v>220</v>
+        <v>26</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1657,21 +1603,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>120</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="K26">
-        <v>0.6</v>
+        <v>0.638235294117647</v>
       </c>
       <c r="L26">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="M26">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1683,21 +1629,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>16</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="K27">
-        <v>0.5899581589958159</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L27">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c r="M27">
-        <v>141</v>
+        <v>58</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1709,21 +1655,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>98</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K28">
-        <v>0.5864406779661017</v>
+        <v>0.6033898305084746</v>
       </c>
       <c r="L28">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M28">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1735,21 +1681,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K29">
-        <v>0.5757575757575758</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L29">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1761,21 +1707,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K30">
-        <v>0.574468085106383</v>
+        <v>0.5774058577405857</v>
       </c>
       <c r="L30">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="M30">
-        <v>54</v>
+        <v>138</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1787,12 +1733,12 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>40</v>
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="K31">
         <v>0.5714285714285714</v>
@@ -1818,16 +1764,16 @@
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K32">
-        <v>0.5538461538461539</v>
+        <v>0.4831460674157304</v>
       </c>
       <c r="L32">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="M32">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1839,21 +1785,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>29</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="K33">
-        <v>0.550561797752809</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L33">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="M33">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1865,21 +1811,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>40</v>
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K34">
-        <v>0.5</v>
+        <v>0.4385964912280702</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="M34">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1891,21 +1837,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>21</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="K35">
-        <v>0.4901960784313725</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="L35">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="M35">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1922,42 +1868,42 @@
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="K36">
-        <v>0.3972602739726027</v>
+        <v>0.3448275862068966</v>
       </c>
       <c r="L36">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M36">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="N36">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="K37">
-        <v>0.3846153846153846</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L37">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M37">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1969,15 +1915,15 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K38">
-        <v>0.3389830508474576</v>
+        <v>0.3125</v>
       </c>
       <c r="L38">
         <v>20</v>
@@ -1995,47 +1941,47 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K39">
-        <v>0.1775700934579439</v>
+        <v>0.3013698630136986</v>
       </c>
       <c r="L39">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M39">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N39">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.09999999999999998</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>88</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K40">
-        <v>0.07142857142857142</v>
+        <v>0.02885682574916759</v>
       </c>
       <c r="L40">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M40">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2047,85 +1993,85 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>286</v>
+        <v>875</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K41">
-        <v>0.01514434453383814</v>
+        <v>0.01577784790154623</v>
       </c>
       <c r="L41">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="M41">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="N41">
-        <v>0.52</v>
+        <v>0.61</v>
       </c>
       <c r="O41">
-        <v>0.48</v>
+        <v>0.39</v>
       </c>
       <c r="P41" t="b">
         <v>1</v>
       </c>
       <c r="Q41">
-        <v>2081</v>
+        <v>3119</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K42">
-        <v>0.01450189155107188</v>
+        <v>0.01232227488151659</v>
       </c>
       <c r="L42">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="M42">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="N42">
-        <v>0.61</v>
+        <v>0.44</v>
       </c>
       <c r="O42">
-        <v>0.39</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="P42" t="b">
         <v>1</v>
       </c>
       <c r="Q42">
-        <v>3126</v>
+        <v>2084</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K43">
-        <v>0.006858262573481384</v>
+        <v>0.008502289077828646</v>
       </c>
       <c r="L43">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M43">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="N43">
-        <v>0.32</v>
+        <v>0.35</v>
       </c>
       <c r="O43">
-        <v>0.6799999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="P43" t="b">
         <v>1</v>
       </c>
       <c r="Q43">
-        <v>3041</v>
+        <v>3032</v>
       </c>
     </row>
   </sheetData>
